--- a/ex.xlsx
+++ b/ex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ab9de0a26896c80/Dokumenti/proj/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_9EC0D89F5B86E61DB367C2D87AD50F7834A2FFF1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6869B686-A808-4D9A-B0E1-DD6357A0A43C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_CFE3896B743F0203D6A7BC2E86B2AB540BA565A0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2586089-02B4-46D1-BB2B-8B72262CF6A9}"/>
   <bookViews>
     <workbookView xWindow="4790" yWindow="1170" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
